--- a/DEC-FEC Conjuntos.xlsx
+++ b/DEC-FEC Conjuntos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/jcruzpir_emeal_nttdata_com/Documents/Escritorio/PEM_NPEM DEC-FEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C2763C47-5D6F-440E-8D61-9DC34DD79AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AC68C05-451B-4E82-948E-72726BE2469F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C2763C47-5D6F-440E-8D61-9DC34DD79AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C2A431-E4EF-4857-9D64-AE6878592036}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEC" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,7 +954,7 @@
         <v>0.63</v>
       </c>
       <c r="AH2">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
@@ -1058,7 +1058,7 @@
         <v>0.5</v>
       </c>
       <c r="AH3">
-        <v>0.86</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
@@ -1162,7 +1162,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AH4">
-        <v>0.56000000000000005</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
@@ -1266,7 +1266,7 @@
         <v>1.7</v>
       </c>
       <c r="AH5">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
@@ -1370,7 +1370,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.99</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
@@ -1474,7 +1474,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
@@ -1578,7 +1578,7 @@
         <v>0.99</v>
       </c>
       <c r="AH8">
-        <v>0.69</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
@@ -1682,7 +1682,7 @@
         <v>0.86</v>
       </c>
       <c r="AH9">
-        <v>0.98</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
@@ -1786,7 +1786,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="AH10">
-        <v>2.3199999999999998</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
@@ -1890,7 +1890,7 @@
         <v>0.52</v>
       </c>
       <c r="AH11">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
@@ -1994,7 +1994,7 @@
         <v>1.46</v>
       </c>
       <c r="AH12">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
@@ -2098,7 +2098,7 @@
         <v>0.88</v>
       </c>
       <c r="AH13">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
@@ -2202,7 +2202,7 @@
         <v>0.38</v>
       </c>
       <c r="AH14">
-        <v>0.57999999999999996</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
@@ -2306,7 +2306,7 @@
         <v>0.82</v>
       </c>
       <c r="AH15">
-        <v>0.92</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
@@ -2410,7 +2410,7 @@
         <v>0.53</v>
       </c>
       <c r="AH16">
-        <v>0.72</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
@@ -2514,7 +2514,7 @@
         <v>0.45</v>
       </c>
       <c r="AH17">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
@@ -2618,7 +2618,7 @@
         <v>1.67</v>
       </c>
       <c r="AH18">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
@@ -2722,7 +2722,7 @@
         <v>0.72</v>
       </c>
       <c r="AH19">
-        <v>0.57999999999999996</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
@@ -2826,7 +2826,7 @@
         <v>0.33</v>
       </c>
       <c r="AH20">
-        <v>0.39</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
@@ -2930,7 +2930,7 @@
         <v>0.68</v>
       </c>
       <c r="AH21">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
@@ -3034,7 +3034,7 @@
         <v>0.38</v>
       </c>
       <c r="AH22">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
@@ -3138,7 +3138,7 @@
         <v>0.64</v>
       </c>
       <c r="AH23">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
@@ -3242,7 +3242,7 @@
         <v>0.99</v>
       </c>
       <c r="AH24">
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
@@ -3346,7 +3346,7 @@
         <v>0.35</v>
       </c>
       <c r="AH25">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
@@ -3450,7 +3450,7 @@
         <v>0.16</v>
       </c>
       <c r="AH26">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
@@ -3554,7 +3554,7 @@
         <v>0.43</v>
       </c>
       <c r="AH27">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
@@ -3658,7 +3658,7 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="AH28">
-        <v>2.5099999999999998</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
@@ -3762,7 +3762,7 @@
         <v>0.34</v>
       </c>
       <c r="AH29">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
@@ -3866,7 +3866,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AH30">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
@@ -3970,7 +3970,7 @@
         <v>0.78</v>
       </c>
       <c r="AH31">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
@@ -4074,7 +4074,7 @@
         <v>1.25</v>
       </c>
       <c r="AH32">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
@@ -4178,7 +4178,7 @@
         <v>1.04</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
@@ -4282,7 +4282,7 @@
         <v>0.54</v>
       </c>
       <c r="AH34">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
@@ -4386,7 +4386,7 @@
         <v>0.81</v>
       </c>
       <c r="AH35">
-        <v>1.08</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
@@ -4490,7 +4490,7 @@
         <v>0.47</v>
       </c>
       <c r="AH36">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
@@ -4594,7 +4594,7 @@
         <v>1.03</v>
       </c>
       <c r="AH37">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
@@ -4698,7 +4698,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AH38">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
@@ -4802,7 +4802,7 @@
         <v>0.79</v>
       </c>
       <c r="AH39">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
@@ -4906,7 +4906,7 @@
         <v>3.08</v>
       </c>
       <c r="AH40">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
@@ -5010,7 +5010,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="AH41">
-        <v>0.57999999999999996</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
@@ -5114,7 +5114,7 @@
         <v>1.22</v>
       </c>
       <c r="AH42">
-        <v>1.08</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
@@ -5218,7 +5218,7 @@
         <v>0.72</v>
       </c>
       <c r="AH43">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
@@ -5322,7 +5322,7 @@
         <v>0.66</v>
       </c>
       <c r="AH44">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
@@ -5426,7 +5426,7 @@
         <v>0.8</v>
       </c>
       <c r="AH45">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
@@ -5530,7 +5530,7 @@
         <v>1.46</v>
       </c>
       <c r="AH46">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
@@ -5634,7 +5634,7 @@
         <v>1.03</v>
       </c>
       <c r="AH47">
-        <v>0.76</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
@@ -5738,7 +5738,7 @@
         <v>0.36</v>
       </c>
       <c r="AH48">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
@@ -5842,7 +5842,7 @@
         <v>0.6</v>
       </c>
       <c r="AH49">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
@@ -5946,7 +5946,7 @@
         <v>0.27</v>
       </c>
       <c r="AH50">
-        <v>0.57999999999999996</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
@@ -6050,7 +6050,7 @@
         <v>0.53</v>
       </c>
       <c r="AH51">
-        <v>0.79</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
@@ -6154,7 +6154,7 @@
         <v>1.42</v>
       </c>
       <c r="AH52">
-        <v>1.56</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
@@ -6258,7 +6258,7 @@
         <v>1.34</v>
       </c>
       <c r="AH53">
-        <v>1.0900000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
@@ -6362,7 +6362,7 @@
         <v>1.08</v>
       </c>
       <c r="AH54">
-        <v>2.87</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
@@ -6466,7 +6466,7 @@
         <v>0.33</v>
       </c>
       <c r="AH55">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
@@ -6570,7 +6570,7 @@
         <v>0.6</v>
       </c>
       <c r="AH56">
-        <v>0.56000000000000005</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
@@ -6674,7 +6674,7 @@
         <v>0.34</v>
       </c>
       <c r="AH57">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
@@ -6778,7 +6778,7 @@
         <v>0.77</v>
       </c>
       <c r="AH58">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
@@ -6882,7 +6882,7 @@
         <v>1.58</v>
       </c>
       <c r="AH59">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
@@ -6986,7 +6986,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="AH60">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
@@ -7090,7 +7090,7 @@
         <v>0.88</v>
       </c>
       <c r="AH61">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
@@ -7194,7 +7194,7 @@
         <v>0.6</v>
       </c>
       <c r="AH62">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
@@ -7298,7 +7298,7 @@
         <v>0.73</v>
       </c>
       <c r="AH63">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
@@ -7402,7 +7402,7 @@
         <v>0.51</v>
       </c>
       <c r="AH64">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
@@ -7506,7 +7506,7 @@
         <v>0.13</v>
       </c>
       <c r="AH65">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
@@ -7610,7 +7610,7 @@
         <v>0.75</v>
       </c>
       <c r="AH66">
-        <v>1.02</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
@@ -7714,7 +7714,7 @@
         <v>2.58</v>
       </c>
       <c r="AH67">
-        <v>7.7</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
@@ -7818,7 +7818,7 @@
         <v>0.4</v>
       </c>
       <c r="AH68">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
@@ -7922,7 +7922,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="AH69">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
@@ -8026,7 +8026,7 @@
         <v>1.04</v>
       </c>
       <c r="AH70">
-        <v>1.1200000000000001</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
@@ -8130,7 +8130,7 @@
         <v>0.45</v>
       </c>
       <c r="AH71">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
@@ -8234,7 +8234,7 @@
         <v>1.3</v>
       </c>
       <c r="AH72">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
@@ -8338,7 +8338,7 @@
         <v>0.3</v>
       </c>
       <c r="AH73">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
@@ -8442,7 +8442,7 @@
         <v>1.18</v>
       </c>
       <c r="AH74">
-        <v>0.73</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.35">
@@ -8546,7 +8546,7 @@
         <v>1.05</v>
       </c>
       <c r="AH75">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
@@ -8650,7 +8650,7 @@
         <v>0.47</v>
       </c>
       <c r="AH76">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
@@ -8754,7 +8754,7 @@
         <v>1.54</v>
       </c>
       <c r="AH77">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
@@ -8858,7 +8858,7 @@
         <v>1.03</v>
       </c>
       <c r="AH78">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
@@ -8962,7 +8962,7 @@
         <v>0.64</v>
       </c>
       <c r="AH79">
-        <v>0.57999999999999996</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -8978,8 +8978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A66B28C-E21B-4275-86A9-8C130B9BCA95}">
   <dimension ref="A1:AH79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9225,7 +9225,7 @@
         <v>0.35</v>
       </c>
       <c r="AH2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
@@ -9329,7 +9329,7 @@
         <v>0.3</v>
       </c>
       <c r="AH3">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
@@ -9433,7 +9433,7 @@
         <v>0.08</v>
       </c>
       <c r="AH4">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
@@ -9537,7 +9537,7 @@
         <v>1.34</v>
       </c>
       <c r="AH5">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
@@ -9641,7 +9641,7 @@
         <v>0.77</v>
       </c>
       <c r="AH6">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
@@ -9745,7 +9745,7 @@
         <v>0.1</v>
       </c>
       <c r="AH7">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
@@ -9849,7 +9849,7 @@
         <v>0.7</v>
       </c>
       <c r="AH8">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
@@ -9953,7 +9953,7 @@
         <v>0.47</v>
       </c>
       <c r="AH9">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
@@ -10057,7 +10057,7 @@
         <v>1.06</v>
       </c>
       <c r="AH10">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
@@ -10161,7 +10161,7 @@
         <v>0.46</v>
       </c>
       <c r="AH11">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
@@ -10265,7 +10265,7 @@
         <v>0.65</v>
       </c>
       <c r="AH12">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
@@ -10369,7 +10369,7 @@
         <v>0.33</v>
       </c>
       <c r="AH13">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
@@ -10473,7 +10473,7 @@
         <v>0.16</v>
       </c>
       <c r="AH14">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
@@ -10577,7 +10577,7 @@
         <v>0.33</v>
       </c>
       <c r="AH15">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
@@ -10681,7 +10681,7 @@
         <v>0.17</v>
       </c>
       <c r="AH16">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
@@ -10785,7 +10785,7 @@
         <v>0.19</v>
       </c>
       <c r="AH17">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
@@ -10889,7 +10889,7 @@
         <v>1.01</v>
       </c>
       <c r="AH18">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
@@ -10993,7 +10993,7 @@
         <v>0.95</v>
       </c>
       <c r="AH19">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
@@ -11097,7 +11097,7 @@
         <v>0.11</v>
       </c>
       <c r="AH20">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
@@ -11201,7 +11201,7 @@
         <v>0.34</v>
       </c>
       <c r="AH21">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
@@ -11305,7 +11305,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AH22">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
@@ -11409,7 +11409,7 @@
         <v>0.11</v>
       </c>
       <c r="AH23">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
@@ -11513,7 +11513,7 @@
         <v>0.27</v>
       </c>
       <c r="AH24">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
@@ -11617,7 +11617,7 @@
         <v>0.23</v>
       </c>
       <c r="AH25">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
@@ -11721,7 +11721,7 @@
         <v>0.02</v>
       </c>
       <c r="AH26">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
@@ -11825,7 +11825,7 @@
         <v>0.23</v>
       </c>
       <c r="AH27">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
@@ -11929,7 +11929,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="AH28">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
@@ -12033,7 +12033,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AH29">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
@@ -12137,7 +12137,7 @@
         <v>0.03</v>
       </c>
       <c r="AH30">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
@@ -12241,7 +12241,7 @@
         <v>0.62</v>
       </c>
       <c r="AH31">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
@@ -12345,7 +12345,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AH32">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
@@ -12449,7 +12449,7 @@
         <v>0.27</v>
       </c>
       <c r="AH33">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
@@ -12553,7 +12553,7 @@
         <v>0.19</v>
       </c>
       <c r="AH34">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
@@ -12657,7 +12657,7 @@
         <v>0.27</v>
       </c>
       <c r="AH35">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
@@ -12761,7 +12761,7 @@
         <v>0.21</v>
       </c>
       <c r="AH36">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
@@ -12865,7 +12865,7 @@
         <v>0.31</v>
       </c>
       <c r="AH37">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
@@ -12969,7 +12969,7 @@
         <v>0.41</v>
       </c>
       <c r="AH38">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
@@ -13073,7 +13073,7 @@
         <v>0.77</v>
       </c>
       <c r="AH39">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
@@ -13177,7 +13177,7 @@
         <v>1.35</v>
       </c>
       <c r="AH40">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
@@ -13281,7 +13281,7 @@
         <v>0.26</v>
       </c>
       <c r="AH41">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
@@ -13385,7 +13385,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AH42">
-        <v>0.28999999999999998</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
@@ -13489,7 +13489,7 @@
         <v>0.3</v>
       </c>
       <c r="AH43">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
@@ -13593,7 +13593,7 @@
         <v>0.26</v>
       </c>
       <c r="AH44">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
@@ -13697,7 +13697,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AH45">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
@@ -13801,7 +13801,7 @@
         <v>0.47</v>
       </c>
       <c r="AH46">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
@@ -13905,7 +13905,7 @@
         <v>0.45</v>
       </c>
       <c r="AH47">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
@@ -14009,7 +14009,7 @@
         <v>0.1</v>
       </c>
       <c r="AH48">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
@@ -14113,7 +14113,7 @@
         <v>0.19</v>
       </c>
       <c r="AH49">
-        <v>1.1499999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
@@ -14217,7 +14217,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AH50">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
@@ -14321,7 +14321,7 @@
         <v>0.21</v>
       </c>
       <c r="AH51">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
@@ -14425,7 +14425,7 @@
         <v>0.61</v>
       </c>
       <c r="AH52">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
@@ -14529,7 +14529,7 @@
         <v>0.48</v>
       </c>
       <c r="AH53">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
@@ -14633,7 +14633,7 @@
         <v>0.23</v>
       </c>
       <c r="AH54">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
@@ -14737,7 +14737,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AH55">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
@@ -14841,7 +14841,7 @@
         <v>0.19</v>
       </c>
       <c r="AH56">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
@@ -14945,7 +14945,7 @@
         <v>0.11</v>
       </c>
       <c r="AH57">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
@@ -15049,7 +15049,7 @@
         <v>0.37</v>
       </c>
       <c r="AH58">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
@@ -15153,7 +15153,7 @@
         <v>0.71</v>
       </c>
       <c r="AH59">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
@@ -15257,7 +15257,7 @@
         <v>0.38</v>
       </c>
       <c r="AH60">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
@@ -15361,7 +15361,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AH61">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
@@ -15465,7 +15465,7 @@
         <v>0.26</v>
       </c>
       <c r="AH62">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
@@ -15569,7 +15569,7 @@
         <v>0.39</v>
       </c>
       <c r="AH63">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
@@ -15673,7 +15673,7 @@
         <v>0.19</v>
       </c>
       <c r="AH64">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
@@ -15777,7 +15777,7 @@
         <v>0.03</v>
       </c>
       <c r="AH65">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
@@ -15881,7 +15881,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AH66">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
@@ -15985,7 +15985,7 @@
         <v>1.17</v>
       </c>
       <c r="AH67">
-        <v>2.2400000000000002</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
@@ -16089,7 +16089,7 @@
         <v>0.1</v>
       </c>
       <c r="AH68">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
@@ -16193,7 +16193,7 @@
         <v>0.74</v>
       </c>
       <c r="AH69">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
@@ -16297,7 +16297,7 @@
         <v>0.81</v>
       </c>
       <c r="AH70">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
@@ -16401,7 +16401,7 @@
         <v>0.09</v>
       </c>
       <c r="AH71">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
@@ -16505,7 +16505,7 @@
         <v>0.64</v>
       </c>
       <c r="AH72">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
@@ -16609,7 +16609,7 @@
         <v>0.2</v>
       </c>
       <c r="AH73">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
@@ -16713,7 +16713,7 @@
         <v>0.81</v>
       </c>
       <c r="AH74">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.35">
@@ -16817,7 +16817,7 @@
         <v>0.79</v>
       </c>
       <c r="AH75">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
@@ -16921,7 +16921,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AH76">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
@@ -17025,7 +17025,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="AH77">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
@@ -17129,7 +17129,7 @@
         <v>0.38</v>
       </c>
       <c r="AH78">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
@@ -17233,7 +17233,7 @@
         <v>0.23</v>
       </c>
       <c r="AH79">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
